--- a/77a - Ringsend to Jobstown.xlsx
+++ b/77a - Ringsend to Jobstown.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="101">
   <si>
     <t>Bus Stop Coordinates</t>
   </si>
@@ -316,19 +316,28 @@
   </si>
   <si>
     <t>Bianconi Avenue</t>
+  </si>
+  <si>
+    <t>77a</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -351,8 +360,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -649,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C53" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -692,7 +702,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" ht="15.75">
+      <c r="A5" s="1">
+        <v>53.342100000000002</v>
+      </c>
+      <c r="B5" s="1">
+        <v>-6.2354180000000001</v>
+      </c>
+      <c r="C5" t="s">
+        <v>100</v>
+      </c>
       <c r="D5">
         <v>395</v>
       </c>
@@ -703,7 +722,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="15.75">
+      <c r="A6" s="1">
+        <v>53.342694000000002</v>
+      </c>
+      <c r="B6">
+        <v>-6.2397130000000001</v>
+      </c>
+      <c r="C6" t="s">
+        <v>100</v>
+      </c>
       <c r="D6">
         <v>396</v>
       </c>
@@ -714,7 +742,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="15.75">
+      <c r="A7" s="1">
+        <v>53.342787000000001</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-6.2420030000000004</v>
+      </c>
+      <c r="C7" t="s">
+        <v>100</v>
+      </c>
       <c r="D7">
         <v>397</v>
       </c>
@@ -725,7 +762,16 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="15.75">
+      <c r="A8" s="1">
+        <v>53.343297</v>
+      </c>
+      <c r="B8" s="1">
+        <v>-6.245463</v>
+      </c>
+      <c r="C8" t="s">
+        <v>100</v>
+      </c>
       <c r="D8">
         <v>398</v>
       </c>
@@ -736,7 +782,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="15.75">
+      <c r="A9" s="1">
+        <v>53.343862999999999</v>
+      </c>
+      <c r="B9" s="1">
+        <v>-6.2481460000000002</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
       <c r="D9">
         <v>399</v>
       </c>
@@ -747,7 +802,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="15.75">
+      <c r="A10" s="1">
+        <v>53.344749999999998</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-6.2528110000000003</v>
+      </c>
+      <c r="C10" t="s">
+        <v>100</v>
+      </c>
       <c r="D10">
         <v>400</v>
       </c>
@@ -759,6 +823,9 @@
       </c>
     </row>
     <row r="11" spans="1:6">
+      <c r="C11" t="s">
+        <v>100</v>
+      </c>
       <c r="D11">
         <v>4522</v>
       </c>
@@ -769,7 +836,16 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" ht="15.75">
+      <c r="A12" s="1">
+        <v>53.344290999999998</v>
+      </c>
+      <c r="B12" s="1">
+        <v>-6.2656140000000002</v>
+      </c>
+      <c r="C12" t="s">
+        <v>100</v>
+      </c>
       <c r="D12">
         <v>1934</v>
       </c>
@@ -780,7 +856,16 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" ht="15.75">
+      <c r="A13" s="1">
+        <v>53.342447999999997</v>
+      </c>
+      <c r="B13">
+        <v>-6.2697950000000002</v>
+      </c>
+      <c r="C13" t="s">
+        <v>100</v>
+      </c>
       <c r="D13">
         <v>2310</v>
       </c>
@@ -791,7 +876,16 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" ht="15.75">
+      <c r="A14" s="1">
+        <v>53.338182000000003</v>
+      </c>
+      <c r="B14" s="1">
+        <v>-6.2704529999999998</v>
+      </c>
+      <c r="C14" t="s">
+        <v>100</v>
+      </c>
       <c r="D14">
         <v>2311</v>
       </c>
@@ -802,7 +896,16 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" ht="15.75">
+      <c r="A15">
+        <v>53.338875000000002</v>
+      </c>
+      <c r="B15" s="1">
+        <v>-6.2754760000000003</v>
+      </c>
+      <c r="C15" t="s">
+        <v>100</v>
+      </c>
       <c r="D15">
         <v>2312</v>
       </c>
@@ -814,6 +917,15 @@
       </c>
     </row>
     <row r="16" spans="1:6">
+      <c r="A16">
+        <v>53.338743999999998</v>
+      </c>
+      <c r="B16">
+        <v>-6.2784659999999999</v>
+      </c>
+      <c r="C16" t="s">
+        <v>100</v>
+      </c>
       <c r="D16">
         <v>2313</v>
       </c>
@@ -824,7 +936,16 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="4:6">
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>53.338354000000002</v>
+      </c>
+      <c r="B17">
+        <v>-6.2808159999999997</v>
+      </c>
+      <c r="C17" t="s">
+        <v>100</v>
+      </c>
       <c r="D17">
         <v>2314</v>
       </c>
@@ -835,7 +956,16 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="4:6">
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>53.337532000000003</v>
+      </c>
+      <c r="B18">
+        <v>-6.2852290000000002</v>
+      </c>
+      <c r="C18" t="s">
+        <v>100</v>
+      </c>
       <c r="D18">
         <v>2315</v>
       </c>
@@ -846,7 +976,16 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="4:6">
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>53.334747999999998</v>
+      </c>
+      <c r="B19">
+        <v>-6.2897449999999999</v>
+      </c>
+      <c r="C19" t="s">
+        <v>100</v>
+      </c>
       <c r="D19">
         <v>2094</v>
       </c>
@@ -857,7 +996,16 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="4:6">
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>53.333154999999998</v>
+      </c>
+      <c r="B20">
+        <v>-6.2916850000000002</v>
+      </c>
+      <c r="C20" t="s">
+        <v>100</v>
+      </c>
       <c r="D20">
         <v>1406</v>
       </c>
@@ -868,7 +1016,16 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="4:6">
+    <row r="21" spans="1:6" ht="15.75">
+      <c r="A21">
+        <v>53.331502999999998</v>
+      </c>
+      <c r="B21" s="1">
+        <v>-6.294556</v>
+      </c>
+      <c r="C21" t="s">
+        <v>100</v>
+      </c>
       <c r="D21">
         <v>1407</v>
       </c>
@@ -879,7 +1036,16 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="4:6">
+    <row r="22" spans="1:6" ht="15.75">
+      <c r="A22">
+        <v>53.330376000000001</v>
+      </c>
+      <c r="B22" s="1">
+        <v>-6.2974459999999999</v>
+      </c>
+      <c r="C22" t="s">
+        <v>100</v>
+      </c>
       <c r="D22">
         <v>1409</v>
       </c>
@@ -890,7 +1056,16 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="4:6">
+    <row r="23" spans="1:6" ht="15.75">
+      <c r="A23">
+        <v>53.329031999999998</v>
+      </c>
+      <c r="B23" s="1">
+        <v>-6.3024519999999997</v>
+      </c>
+      <c r="C23" t="s">
+        <v>100</v>
+      </c>
       <c r="D23">
         <v>2095</v>
       </c>
@@ -901,7 +1076,16 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="4:6">
+    <row r="24" spans="1:6" ht="15.75">
+      <c r="A24">
+        <v>53.328077999999998</v>
+      </c>
+      <c r="B24" s="1">
+        <v>-6.306794</v>
+      </c>
+      <c r="C24" t="s">
+        <v>100</v>
+      </c>
       <c r="D24">
         <v>2096</v>
       </c>
@@ -912,7 +1096,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="4:6">
+    <row r="25" spans="1:6" ht="15.75">
+      <c r="A25">
+        <v>53.327423000000003</v>
+      </c>
+      <c r="B25" s="1">
+        <v>-6.3097159999999999</v>
+      </c>
+      <c r="C25" t="s">
+        <v>100</v>
+      </c>
       <c r="D25">
         <v>2097</v>
       </c>
@@ -923,7 +1116,16 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="4:6">
+    <row r="26" spans="1:6" ht="15.75">
+      <c r="A26" s="1">
+        <v>53.325555000000001</v>
+      </c>
+      <c r="B26" s="1">
+        <v>-6.3165829999999996</v>
+      </c>
+      <c r="C26" t="s">
+        <v>100</v>
+      </c>
       <c r="D26">
         <v>2099</v>
       </c>
@@ -934,7 +1136,16 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="4:6">
+    <row r="27" spans="1:6" ht="15.75">
+      <c r="A27" s="1">
+        <v>53.324928</v>
+      </c>
+      <c r="B27" s="1">
+        <v>-6.3182119999999999</v>
+      </c>
+      <c r="C27" t="s">
+        <v>100</v>
+      </c>
       <c r="D27">
         <v>2101</v>
       </c>
@@ -945,7 +1156,16 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="4:6">
+    <row r="28" spans="1:6" ht="15.75">
+      <c r="A28" s="1">
+        <v>53.324235000000002</v>
+      </c>
+      <c r="B28" s="1">
+        <v>-6.3262140000000002</v>
+      </c>
+      <c r="C28" t="s">
+        <v>100</v>
+      </c>
       <c r="D28">
         <v>2103</v>
       </c>
@@ -956,7 +1176,16 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="4:6">
+    <row r="29" spans="1:6" ht="15.75">
+      <c r="A29" s="1">
+        <v>53.32208</v>
+      </c>
+      <c r="B29" s="1">
+        <v>-6.3299750000000001</v>
+      </c>
+      <c r="C29" t="s">
+        <v>100</v>
+      </c>
       <c r="D29">
         <v>2332</v>
       </c>
@@ -967,7 +1196,16 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="4:6">
+    <row r="30" spans="1:6" ht="15.75">
+      <c r="A30" s="1">
+        <v>53.321055999999999</v>
+      </c>
+      <c r="B30" s="1">
+        <v>-6.3309420000000003</v>
+      </c>
+      <c r="C30" t="s">
+        <v>100</v>
+      </c>
       <c r="D30">
         <v>2333</v>
       </c>
@@ -978,7 +1216,16 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="4:6">
+    <row r="31" spans="1:6" ht="15.75">
+      <c r="A31" s="1">
+        <v>53.317833999999998</v>
+      </c>
+      <c r="B31" s="1">
+        <v>-6.3326469999999997</v>
+      </c>
+      <c r="C31" t="s">
+        <v>100</v>
+      </c>
       <c r="D31">
         <v>2334</v>
       </c>
@@ -989,7 +1236,16 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="4:6">
+    <row r="32" spans="1:6" ht="15.75">
+      <c r="A32" s="1">
+        <v>53.313304000000002</v>
+      </c>
+      <c r="B32" s="1">
+        <v>-6.3412110000000004</v>
+      </c>
+      <c r="C32" t="s">
+        <v>100</v>
+      </c>
       <c r="D32">
         <v>4662</v>
       </c>
@@ -1000,7 +1256,16 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="4:6">
+    <row r="33" spans="1:6" ht="15.75">
+      <c r="A33" s="1">
+        <v>53.311644999999999</v>
+      </c>
+      <c r="B33" s="1">
+        <v>-6.3431090000000001</v>
+      </c>
+      <c r="C33" t="s">
+        <v>100</v>
+      </c>
       <c r="D33">
         <v>2335</v>
       </c>
@@ -1011,7 +1276,16 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="4:6">
+    <row r="34" spans="1:6" ht="15.75">
+      <c r="A34" s="1">
+        <v>53.308857000000003</v>
+      </c>
+      <c r="B34" s="1">
+        <v>-6.3457369999999997</v>
+      </c>
+      <c r="C34" t="s">
+        <v>100</v>
+      </c>
       <c r="D34">
         <v>2336</v>
       </c>
@@ -1022,7 +1296,16 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="4:6">
+    <row r="35" spans="1:6" ht="15.75">
+      <c r="A35" s="1">
+        <v>53.305987000000002</v>
+      </c>
+      <c r="B35" s="1">
+        <v>-6.3485060000000004</v>
+      </c>
+      <c r="C35" t="s">
+        <v>100</v>
+      </c>
       <c r="D35">
         <v>2337</v>
       </c>
@@ -1033,7 +1316,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="4:6">
+    <row r="36" spans="1:6" ht="15.75">
+      <c r="A36" s="1">
+        <v>53.302568999999998</v>
+      </c>
+      <c r="B36" s="1">
+        <v>-6.3514939999999998</v>
+      </c>
+      <c r="C36" t="s">
+        <v>100</v>
+      </c>
       <c r="D36">
         <v>2339</v>
       </c>
@@ -1044,7 +1336,16 @@
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="4:6">
+    <row r="37" spans="1:6" ht="15.75">
+      <c r="A37" s="1">
+        <v>53.301186000000001</v>
+      </c>
+      <c r="B37" s="1">
+        <v>-6.3512690000000003</v>
+      </c>
+      <c r="C37" t="s">
+        <v>100</v>
+      </c>
       <c r="D37">
         <v>2420</v>
       </c>
@@ -1055,7 +1356,16 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="4:6">
+    <row r="38" spans="1:6" ht="15.75">
+      <c r="A38" s="1">
+        <v>53.299672999999999</v>
+      </c>
+      <c r="B38" s="1">
+        <v>-6.3463799999999999</v>
+      </c>
+      <c r="C38" t="s">
+        <v>100</v>
+      </c>
       <c r="D38">
         <v>2421</v>
       </c>
@@ -1066,7 +1376,16 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="4:6">
+    <row r="39" spans="1:6" ht="15.75">
+      <c r="A39" s="1">
+        <v>53.298262999999999</v>
+      </c>
+      <c r="B39" s="1">
+        <v>-6.3429489999999999</v>
+      </c>
+      <c r="C39" t="s">
+        <v>100</v>
+      </c>
       <c r="D39">
         <v>2423</v>
       </c>
@@ -1077,7 +1396,16 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="4:6">
+    <row r="40" spans="1:6" ht="15.75">
+      <c r="A40" s="1">
+        <v>53.295150999999997</v>
+      </c>
+      <c r="B40" s="1">
+        <v>-6.3412249999999997</v>
+      </c>
+      <c r="C40" t="s">
+        <v>100</v>
+      </c>
       <c r="D40">
         <v>2424</v>
       </c>
@@ -1088,7 +1416,16 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="4:6">
+    <row r="41" spans="1:6" ht="15.75">
+      <c r="A41" s="1">
+        <v>53.292985000000002</v>
+      </c>
+      <c r="B41" s="1">
+        <v>-6.3426640000000001</v>
+      </c>
+      <c r="C41" t="s">
+        <v>100</v>
+      </c>
       <c r="D41">
         <v>2447</v>
       </c>
@@ -1099,7 +1436,16 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="4:6">
+    <row r="42" spans="1:6" ht="15.75">
+      <c r="A42" s="1">
+        <v>53.290509</v>
+      </c>
+      <c r="B42" s="1">
+        <v>-6.3430460000000002</v>
+      </c>
+      <c r="C42" t="s">
+        <v>100</v>
+      </c>
       <c r="D42">
         <v>5133</v>
       </c>
@@ -1110,7 +1456,16 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="4:6">
+    <row r="43" spans="1:6" ht="15.75">
+      <c r="A43" s="1">
+        <v>53.289776000000003</v>
+      </c>
+      <c r="B43" s="1">
+        <v>-6.3407020000000003</v>
+      </c>
+      <c r="C43" t="s">
+        <v>100</v>
+      </c>
       <c r="D43">
         <v>2596</v>
       </c>
@@ -1121,7 +1476,16 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="4:6">
+    <row r="44" spans="1:6" ht="15.75">
+      <c r="A44" s="1">
+        <v>53.286906999999999</v>
+      </c>
+      <c r="B44" s="1">
+        <v>-6.340624</v>
+      </c>
+      <c r="C44" t="s">
+        <v>100</v>
+      </c>
       <c r="D44">
         <v>2611</v>
       </c>
@@ -1132,7 +1496,16 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="4:6">
+    <row r="45" spans="1:6" ht="15.75">
+      <c r="A45" s="1">
+        <v>53.284289999999999</v>
+      </c>
+      <c r="B45" s="1">
+        <v>-6.3440209999999997</v>
+      </c>
+      <c r="C45" t="s">
+        <v>100</v>
+      </c>
       <c r="D45">
         <v>2602</v>
       </c>
@@ -1143,7 +1516,16 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="4:6">
+    <row r="46" spans="1:6" ht="15.75">
+      <c r="A46" s="1">
+        <v>53.282497999999997</v>
+      </c>
+      <c r="B46" s="1">
+        <v>-6.3478469999999998</v>
+      </c>
+      <c r="C46" t="s">
+        <v>100</v>
+      </c>
       <c r="D46">
         <v>2613</v>
       </c>
@@ -1154,7 +1536,16 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="4:6">
+    <row r="47" spans="1:6" ht="15.75">
+      <c r="A47" s="1">
+        <v>53.281419999999997</v>
+      </c>
+      <c r="B47" s="1">
+        <v>-6.3506460000000002</v>
+      </c>
+      <c r="C47" t="s">
+        <v>100</v>
+      </c>
       <c r="D47">
         <v>2614</v>
       </c>
@@ -1165,7 +1556,16 @@
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="4:6">
+    <row r="48" spans="1:6" ht="15.75">
+      <c r="A48" s="1">
+        <v>53.280673</v>
+      </c>
+      <c r="B48" s="1">
+        <v>-6.355124</v>
+      </c>
+      <c r="C48" t="s">
+        <v>100</v>
+      </c>
       <c r="D48">
         <v>2615</v>
       </c>
@@ -1176,7 +1576,16 @@
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="4:6">
+    <row r="49" spans="1:6" ht="15.75">
+      <c r="A49" s="1">
+        <v>53.280996000000002</v>
+      </c>
+      <c r="B49" s="1">
+        <v>-6.3588909999999998</v>
+      </c>
+      <c r="C49" t="s">
+        <v>100</v>
+      </c>
       <c r="D49">
         <v>2535</v>
       </c>
@@ -1187,7 +1596,16 @@
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="4:6">
+    <row r="50" spans="1:6" ht="15.75">
+      <c r="A50" s="1">
+        <v>53.282947</v>
+      </c>
+      <c r="B50" s="1">
+        <v>-6.3595649999999999</v>
+      </c>
+      <c r="C50" t="s">
+        <v>100</v>
+      </c>
       <c r="D50">
         <v>2536</v>
       </c>
@@ -1198,7 +1616,16 @@
         <v>69</v>
       </c>
     </row>
-    <row r="51" spans="4:6">
+    <row r="51" spans="1:6" ht="15.75">
+      <c r="A51" s="1">
+        <v>53.284661999999997</v>
+      </c>
+      <c r="B51" s="1">
+        <v>-6.3606490000000004</v>
+      </c>
+      <c r="C51" t="s">
+        <v>100</v>
+      </c>
       <c r="D51">
         <v>2616</v>
       </c>
@@ -1209,7 +1636,16 @@
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="4:6">
+    <row r="52" spans="1:6" ht="15.75">
+      <c r="A52" s="1">
+        <v>53.286706000000002</v>
+      </c>
+      <c r="B52" s="1">
+        <v>-6.3620570000000001</v>
+      </c>
+      <c r="C52" t="s">
+        <v>100</v>
+      </c>
       <c r="D52">
         <v>2617</v>
       </c>
@@ -1220,7 +1656,16 @@
         <v>72</v>
       </c>
     </row>
-    <row r="53" spans="4:6">
+    <row r="53" spans="1:6" ht="15.75">
+      <c r="A53" s="1">
+        <v>53.288500999999997</v>
+      </c>
+      <c r="B53" s="1">
+        <v>-6.3632749999999998</v>
+      </c>
+      <c r="C53" t="s">
+        <v>100</v>
+      </c>
       <c r="D53">
         <v>2557</v>
       </c>
@@ -1231,7 +1676,16 @@
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="4:6">
+    <row r="54" spans="1:6" ht="15.75">
+      <c r="A54" s="1">
+        <v>53.289222000000002</v>
+      </c>
+      <c r="B54" s="1">
+        <v>-6.3670280000000004</v>
+      </c>
+      <c r="C54" t="s">
+        <v>100</v>
+      </c>
       <c r="D54">
         <v>4436</v>
       </c>
@@ -1242,7 +1696,16 @@
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="4:6">
+    <row r="55" spans="1:6" ht="15.75">
+      <c r="A55" s="1">
+        <v>53.290438999999999</v>
+      </c>
+      <c r="B55" s="1">
+        <v>-6.3693400000000002</v>
+      </c>
+      <c r="C55" t="s">
+        <v>100</v>
+      </c>
       <c r="D55">
         <v>5008</v>
       </c>
@@ -1253,7 +1716,16 @@
         <v>76</v>
       </c>
     </row>
-    <row r="56" spans="4:6">
+    <row r="56" spans="1:6" ht="15.75">
+      <c r="A56" s="1">
+        <v>53.289386</v>
+      </c>
+      <c r="B56" s="1">
+        <v>-6.373729</v>
+      </c>
+      <c r="C56" t="s">
+        <v>100</v>
+      </c>
       <c r="D56">
         <v>4640</v>
       </c>
@@ -1264,7 +1736,10 @@
         <v>78</v>
       </c>
     </row>
-    <row r="57" spans="4:6">
+    <row r="57" spans="1:6">
+      <c r="C57" t="s">
+        <v>100</v>
+      </c>
       <c r="D57">
         <v>4347</v>
       </c>
@@ -1275,7 +1750,10 @@
         <v>79</v>
       </c>
     </row>
-    <row r="58" spans="4:6">
+    <row r="58" spans="1:6">
+      <c r="C58" t="s">
+        <v>100</v>
+      </c>
       <c r="D58">
         <v>2349</v>
       </c>
@@ -1286,7 +1764,10 @@
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="4:6">
+    <row r="59" spans="1:6">
+      <c r="C59" t="s">
+        <v>100</v>
+      </c>
       <c r="D59">
         <v>2351</v>
       </c>
@@ -1297,7 +1778,10 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="4:6">
+    <row r="60" spans="1:6">
+      <c r="C60" t="s">
+        <v>100</v>
+      </c>
       <c r="D60">
         <v>2558</v>
       </c>
@@ -1308,7 +1792,10 @@
         <v>83</v>
       </c>
     </row>
-    <row r="61" spans="4:6">
+    <row r="61" spans="1:6">
+      <c r="C61" t="s">
+        <v>100</v>
+      </c>
       <c r="D61">
         <v>2559</v>
       </c>
@@ -1319,7 +1806,10 @@
         <v>84</v>
       </c>
     </row>
-    <row r="62" spans="4:6">
+    <row r="62" spans="1:6">
+      <c r="C62" t="s">
+        <v>100</v>
+      </c>
       <c r="D62">
         <v>2560</v>
       </c>
@@ -1330,7 +1820,10 @@
         <v>85</v>
       </c>
     </row>
-    <row r="63" spans="4:6">
+    <row r="63" spans="1:6">
+      <c r="C63" t="s">
+        <v>100</v>
+      </c>
       <c r="D63">
         <v>2561</v>
       </c>
@@ -1341,7 +1834,10 @@
         <v>86</v>
       </c>
     </row>
-    <row r="64" spans="4:6">
+    <row r="64" spans="1:6">
+      <c r="C64" t="s">
+        <v>100</v>
+      </c>
       <c r="D64">
         <v>2562</v>
       </c>
@@ -1352,7 +1848,10 @@
         <v>87</v>
       </c>
     </row>
-    <row r="65" spans="4:6">
+    <row r="65" spans="3:6">
+      <c r="C65" t="s">
+        <v>100</v>
+      </c>
       <c r="D65">
         <v>2564</v>
       </c>
@@ -1363,7 +1862,10 @@
         <v>88</v>
       </c>
     </row>
-    <row r="66" spans="4:6">
+    <row r="66" spans="3:6">
+      <c r="C66" t="s">
+        <v>100</v>
+      </c>
       <c r="D66">
         <v>4927</v>
       </c>
@@ -1374,7 +1876,10 @@
         <v>89</v>
       </c>
     </row>
-    <row r="67" spans="4:6">
+    <row r="67" spans="3:6">
+      <c r="C67" t="s">
+        <v>100</v>
+      </c>
       <c r="D67">
         <v>4928</v>
       </c>
@@ -1385,7 +1890,10 @@
         <v>90</v>
       </c>
     </row>
-    <row r="68" spans="4:6">
+    <row r="68" spans="3:6">
+      <c r="C68" t="s">
+        <v>100</v>
+      </c>
       <c r="D68">
         <v>2352</v>
       </c>
@@ -1396,7 +1904,10 @@
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="4:6">
+    <row r="69" spans="3:6">
+      <c r="C69" t="s">
+        <v>100</v>
+      </c>
       <c r="D69">
         <v>2573</v>
       </c>
@@ -1407,7 +1918,10 @@
         <v>92</v>
       </c>
     </row>
-    <row r="70" spans="4:6">
+    <row r="70" spans="3:6">
+      <c r="C70" t="s">
+        <v>100</v>
+      </c>
       <c r="D70">
         <v>2574</v>
       </c>
@@ -1418,7 +1932,10 @@
         <v>93</v>
       </c>
     </row>
-    <row r="71" spans="4:6">
+    <row r="71" spans="3:6">
+      <c r="C71" t="s">
+        <v>100</v>
+      </c>
       <c r="D71">
         <v>2575</v>
       </c>
@@ -1429,7 +1946,10 @@
         <v>95</v>
       </c>
     </row>
-    <row r="72" spans="4:6">
+    <row r="72" spans="3:6">
+      <c r="C72" t="s">
+        <v>100</v>
+      </c>
       <c r="D72">
         <v>4929</v>
       </c>
@@ -1440,7 +1960,10 @@
         <v>96</v>
       </c>
     </row>
-    <row r="73" spans="4:6">
+    <row r="73" spans="3:6">
+      <c r="C73" t="s">
+        <v>100</v>
+      </c>
       <c r="D73">
         <v>7460</v>
       </c>
@@ -1451,7 +1974,10 @@
         <v>36</v>
       </c>
     </row>
-    <row r="74" spans="4:6">
+    <row r="74" spans="3:6">
+      <c r="C74" t="s">
+        <v>100</v>
+      </c>
       <c r="D74">
         <v>4930</v>
       </c>
@@ -1462,7 +1988,10 @@
         <v>97</v>
       </c>
     </row>
-    <row r="75" spans="4:6">
+    <row r="75" spans="3:6">
+      <c r="C75" t="s">
+        <v>100</v>
+      </c>
       <c r="D75">
         <v>4931</v>
       </c>
@@ -1473,7 +2002,10 @@
         <v>98</v>
       </c>
     </row>
-    <row r="76" spans="4:6">
+    <row r="76" spans="3:6">
+      <c r="C76" t="s">
+        <v>100</v>
+      </c>
       <c r="D76">
         <v>7459</v>
       </c>
